--- a/20160411 - 011/running_logs/logs.xlsx
+++ b/20160411 - 011/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>Time</t>
   </si>
@@ -101,6 +101,27 @@
   </si>
   <si>
     <t>20160415_122839</t>
+  </si>
+  <si>
+    <t>20160415_171720</t>
+  </si>
+  <si>
+    <t>space after punctuation, convert unicode to ascii, trim "space" and ",", remove break line, convert to lower, remove multiple spaces</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 1000</t>
+  </si>
+  <si>
+    <t>20160415_173413</t>
+  </si>
+  <si>
+    <t>20160415_175013</t>
+  </si>
+  <si>
+    <t>20160415_180610</t>
+  </si>
+  <si>
+    <t>20160415_182205</t>
   </si>
 </sst>
 </file>
@@ -432,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -819,6 +840,166 @@
         <v>0.0224719101123595</v>
       </c>
     </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>1013.377</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>0.992666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.947194719471947</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0.0238095238095238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>959.961</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>0.991333333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0.0365853658536585</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>956.226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>0.99</v>
+      </c>
+      <c r="H15">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.024390243902439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>955.222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>0.988</v>
+      </c>
+      <c r="H16">
+        <v>0.943894389438944</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0.036144578313253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>970.493</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17">
+        <v>0.995333333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0.024390243902439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/20160411 - 011/running_logs/logs.xlsx
+++ b/20160411 - 011/running_logs/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
   <si>
     <t>Time</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>20160415_182205</t>
+  </si>
+  <si>
+    <t>20160418_074755</t>
+  </si>
+  <si>
+    <t>convert unicode to ascii, trim "space" and ",", convert to lower, remove multiple spaces, space after punctuation, remove break line</t>
+  </si>
+  <si>
+    <t>2 layers: [100-Sigmoid, 3-Softmax], learning_rate: 0.01, learning_rule: adagrad, n_iterator: 2000</t>
+  </si>
+  <si>
+    <t>20160418_080756</t>
+  </si>
+  <si>
+    <t>20160418_082821</t>
+  </si>
+  <si>
+    <t>20160418_084854</t>
+  </si>
+  <si>
+    <t>20160418_090948</t>
   </si>
 </sst>
 </file>
@@ -453,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,6 +1021,166 @@
         <v>0.024390243902439</v>
       </c>
     </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>1201.699</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>0.991333333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>1224.206</v>
+      </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
+        <v>0.996</v>
+      </c>
+      <c r="H19">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>0.109756097560976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>1233.956</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>0.990666666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.95049504950495</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>0.0470588235294118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>1253.958</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>0.994</v>
+      </c>
+      <c r="H21">
+        <v>0.95049504950495</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>0.0588235294117647</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1254.064</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>0.992</v>
+      </c>
+      <c r="H22">
+        <v>0.940594059405941</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>0.0853658536585366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
